--- a/medicine/Handicap/Stronger_(film)/Stronger_(film).xlsx
+++ b/medicine/Handicap/Stronger_(film)/Stronger_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stronger ou Debout au Québec est un drame américain réalisé par David Gordon Green, sorti en 2017.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir perdu ses jambes lors du double attentat du Marathon 2013 de Boston, Jeff Bauman (en) tente de remarcher et d'accepter les nouvelles conditions de sa vie.
 </t>
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Stronger
-Titre québécois : Debout[1]
+Titre québécois : Debout
 Réalisation : David Gordon Green
 Scénario : John Pollono, d'après le roman Stronger de Jeff Bauman et Bret Witter
 Photographie : Sean Bobbitt
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jake Gyllenhaal (VF : Rémi Bichet ; VQ : Martin Watier) : Jeff Bauman (en)
 Tatiana Maslany (VFB : Audrey d'Hulstère ; VQ : Catherine Brunet) : Erin Hurley, la petite amie de Jeff
@@ -629,12 +647,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En juillet 2014, Lionsgate achète les droits d'adaptation des mémoires de Jeff Bauman (en), coureur qui a perdu ses jambes lors du double attentat du Marathon 2013 de Boston, projet mis en scène par David Gordon Green, choisi un an plus tard, en juillet 2015[2],[3].
-Attribution des rôles
-Fin juillet 2015, Jake Gyllenhaal est annoncé au casting, dans le rôle de Jeff Bauman[4], suivi de Tatiana Maslany, en octobre de la même année, pour incarner sa petite amie[5]. En avril 2016, Miranda Richardson et Clancy Brown sont engagés pour jouer les parents du survivant[6].
-Tournage
-Le tournage débute à Boston le 4 avril 2016[7]. Le tournage a également lieu dans d'autres villes du Massachusetts, comme Southfield et Braintree[8].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2014, Lionsgate achète les droits d'adaptation des mémoires de Jeff Bauman (en), coureur qui a perdu ses jambes lors du double attentat du Marathon 2013 de Boston, projet mis en scène par David Gordon Green, choisi un an plus tard, en juillet 2015,.
 </t>
         </is>
       </c>
@@ -660,15 +679,94 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin juillet 2015, Jake Gyllenhaal est annoncé au casting, dans le rôle de Jeff Bauman, suivi de Tatiana Maslany, en octobre de la même année, pour incarner sa petite amie. En avril 2016, Miranda Richardson et Clancy Brown sont engagés pour jouer les parents du survivant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stronger_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stronger_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute à Boston le 4 avril 2016. Le tournage a également lieu dans d'autres villes du Massachusetts, comme Southfield et Braintree.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stronger_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stronger_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 90 % d'opinions favorables pour 191 critiques[9]. Sur Metacritic, il obtient une note moyenne de 76⁄100 pour 41 critiques.
-En France, le site Allociné recense une moyenne des critiques presse de 2,6/5[10], et des critiques spectateurs à 3,6/5[11].
-La presse est assez mitigée. Première y voit « une œuvre inspirée de faits réels avec un Jake Gyllenhaal impressionnant de sobriété. »[12]. Les Inrockuptibles n'apprécient pas du tout le film : « Pâteux, gluant, niais, le film semble réalisé machinalement par un cinéaste soucieux d’ajouter sa pierre au genre “post-trauma” qui sévit actuellement à Hollywood. »[13].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 90 % d'opinions favorables pour 191 critiques. Sur Metacritic, il obtient une note moyenne de 76⁄100 pour 41 critiques.
+En France, le site Allociné recense une moyenne des critiques presse de 2,6/5, et des critiques spectateurs à 3,6/5.
+La presse est assez mitigée. Première y voit « une œuvre inspirée de faits réels avec un Jake Gyllenhaal impressionnant de sobriété. ». Les Inrockuptibles n'apprécient pas du tout le film : « Pâteux, gluant, niais, le film semble réalisé machinalement par un cinéaste soucieux d’ajouter sa pierre au genre “post-trauma” qui sévit actuellement à Hollywood. ».
 </t>
         </is>
       </c>
